--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -645,31 +645,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 16645-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 16645-2023.xlsx", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 16645-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 16645-2023.png", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/knärot/A 16645-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/knärot/A 16645-2023.png", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 16645-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 16645-2023.docx", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 16645-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 16645-2023.docx", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 16645-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 16645-2023.docx", "A 16645-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 16645-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 16645-2023.docx", "A 16645-2023")</f>
         <v/>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,27 +744,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 33385-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 33385-2019.xlsx", "A 33385-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 33385-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 33385-2019.png", "A 33385-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 33385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 33385-2019.docx", "A 33385-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 33385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 33385-2019.docx", "A 33385-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 33385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 33385-2019.docx", "A 33385-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 33385-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 33385-2019.docx", "A 33385-2019")</f>
         <v/>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,27 +839,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 49914-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 49914-2021.xlsx", "A 49914-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 49914-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 49914-2021.png", "A 49914-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 49914-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 49914-2021.docx", "A 49914-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 49914-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 49914-2021.docx", "A 49914-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 49914-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 49914-2021.docx", "A 49914-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 49914-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 49914-2021.docx", "A 49914-2021")</f>
         <v/>
       </c>
     </row>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,27 +934,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9166-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9166-2022.xlsx", "A 9166-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9166-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9166-2022.png", "A 9166-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9166-2022.docx", "A 9166-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9166-2022.docx", "A 9166-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9166-2022.docx", "A 9166-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9166-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9166-2022.docx", "A 9166-2022")</f>
         <v/>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,27 +1026,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 44809-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 44809-2021.xlsx", "A 44809-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 44809-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 44809-2021.png", "A 44809-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 44809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 44809-2021.docx", "A 44809-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 44809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 44809-2021.docx", "A 44809-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 44809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 44809-2021.docx", "A 44809-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 44809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 44809-2021.docx", "A 44809-2021")</f>
         <v/>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,27 +1115,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 63067-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 63067-2021.xlsx", "A 63067-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 63067-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 63067-2021.png", "A 63067-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 63067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 63067-2021.docx", "A 63067-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 63067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 63067-2021.docx", "A 63067-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 63067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 63067-2021.docx", "A 63067-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 63067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 63067-2021.docx", "A 63067-2021")</f>
         <v/>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,27 +1202,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9721-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9721-2019.xlsx", "A 9721-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9721-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9721-2019.png", "A 9721-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9721-2019.docx", "A 9721-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9721-2019.docx", "A 9721-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9721-2019.docx", "A 9721-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9721-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9721-2019.docx", "A 9721-2019")</f>
         <v/>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,27 +1288,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29573-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29573-2019.xlsx", "A 29573-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29573-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29573-2019.png", "A 29573-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29573-2019.docx", "A 29573-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29573-2019.docx", "A 29573-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29573-2019.docx", "A 29573-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29573-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29573-2019.docx", "A 29573-2019")</f>
         <v/>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,27 +1374,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 23847-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 23847-2020.xlsx", "A 23847-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 23847-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 23847-2020.png", "A 23847-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 23847-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 23847-2020.docx", "A 23847-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 23847-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 23847-2020.docx", "A 23847-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 23847-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 23847-2020.docx", "A 23847-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 23847-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 23847-2020.docx", "A 23847-2020")</f>
         <v/>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,27 +1460,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 68546-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 68546-2020.xlsx", "A 68546-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 68546-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 68546-2020.png", "A 68546-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 68546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 68546-2020.docx", "A 68546-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 68546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 68546-2020.docx", "A 68546-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 68546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 68546-2020.docx", "A 68546-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 68546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 68546-2020.docx", "A 68546-2020")</f>
         <v/>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1546,27 +1546,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29220-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29220-2022.xlsx", "A 29220-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29220-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29220-2022.png", "A 29220-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29220-2022.docx", "A 29220-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29220-2022.docx", "A 29220-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29220-2022.docx", "A 29220-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29220-2022.docx", "A 29220-2022")</f>
         <v/>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,27 +1637,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 51388-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 51388-2022.xlsx", "A 51388-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 51388-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 51388-2022.png", "A 51388-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 51388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 51388-2022.docx", "A 51388-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 51388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 51388-2022.docx", "A 51388-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 51388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 51388-2022.docx", "A 51388-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 51388-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 51388-2022.docx", "A 51388-2022")</f>
         <v/>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1723,27 +1723,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 61611-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 61611-2022.xlsx", "A 61611-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 61611-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 61611-2022.png", "A 61611-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 61611-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 61611-2022.docx", "A 61611-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 61611-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 61611-2022.docx", "A 61611-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 61611-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 61611-2022.docx", "A 61611-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 61611-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 61611-2022.docx", "A 61611-2022")</f>
         <v/>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,27 +1809,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 3793-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 3793-2023.xlsx", "A 3793-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 3793-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 3793-2023.png", "A 3793-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 3793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 3793-2023.docx", "A 3793-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 3793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 3793-2023.docx", "A 3793-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 3793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 3793-2023.docx", "A 3793-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 3793-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 3793-2023.docx", "A 3793-2023")</f>
         <v/>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1895,27 +1895,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 12076-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 12076-2023.xlsx", "A 12076-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 12076-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 12076-2023.png", "A 12076-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 12076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 12076-2023.docx", "A 12076-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 12076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 12076-2023.docx", "A 12076-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 12076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 12076-2023.docx", "A 12076-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 12076-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 12076-2023.docx", "A 12076-2023")</f>
         <v/>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1981,27 +1981,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 26613-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 26613-2023.xlsx", "A 26613-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 26613-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 26613-2023.png", "A 26613-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 26613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 26613-2023.docx", "A 26613-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 26613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 26613-2023.docx", "A 26613-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 26613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 26613-2023.docx", "A 26613-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 26613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 26613-2023.docx", "A 26613-2023")</f>
         <v/>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,27 +2066,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 56938-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 56938-2019.xlsx", "A 56938-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 56938-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 56938-2019.png", "A 56938-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 56938-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 56938-2019.docx", "A 56938-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 56938-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 56938-2019.docx", "A 56938-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 56938-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 56938-2019.docx", "A 56938-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 56938-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 56938-2019.docx", "A 56938-2019")</f>
         <v/>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2151,27 +2151,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 41328-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 41328-2020.xlsx", "A 41328-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 41328-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 41328-2020.png", "A 41328-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 41328-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 41328-2020.docx", "A 41328-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 41328-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 41328-2020.docx", "A 41328-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 41328-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 41328-2020.docx", "A 41328-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 41328-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 41328-2020.docx", "A 41328-2020")</f>
         <v/>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2236,27 +2236,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9043-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 9043-2021.xlsx", "A 9043-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9043-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 9043-2021.png", "A 9043-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9043-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 9043-2021.docx", "A 9043-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9043-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 9043-2021.docx", "A 9043-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9043-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 9043-2021.docx", "A 9043-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9043-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 9043-2021.docx", "A 9043-2021")</f>
         <v/>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2321,27 +2321,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 39804-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 39804-2021.xlsx", "A 39804-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 39804-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 39804-2021.png", "A 39804-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 39804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 39804-2021.docx", "A 39804-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 39804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 39804-2021.docx", "A 39804-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 39804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 39804-2021.docx", "A 39804-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 39804-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 39804-2021.docx", "A 39804-2021")</f>
         <v/>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2406,27 +2406,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 47082-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 47082-2021.xlsx", "A 47082-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 47082-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 47082-2021.png", "A 47082-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 47082-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 47082-2021.docx", "A 47082-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 47082-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 47082-2021.docx", "A 47082-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 47082-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 47082-2021.docx", "A 47082-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 47082-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 47082-2021.docx", "A 47082-2021")</f>
         <v/>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2491,27 +2491,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 63729-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 63729-2021.xlsx", "A 63729-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 63729-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 63729-2021.png", "A 63729-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 63729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 63729-2021.docx", "A 63729-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 63729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 63729-2021.docx", "A 63729-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 63729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 63729-2021.docx", "A 63729-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 63729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 63729-2021.docx", "A 63729-2021")</f>
         <v/>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2576,27 +2576,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 26867-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 26867-2022.xlsx", "A 26867-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 26867-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 26867-2022.png", "A 26867-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 26867-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 26867-2022.docx", "A 26867-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 26867-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 26867-2022.docx", "A 26867-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 26867-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 26867-2022.docx", "A 26867-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 26867-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 26867-2022.docx", "A 26867-2022")</f>
         <v/>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2661,27 +2661,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29215-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 29215-2022.xlsx", "A 29215-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29215-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 29215-2022.png", "A 29215-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 29215-2022.docx", "A 29215-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 29215-2022.docx", "A 29215-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 29215-2022.docx", "A 29215-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 29215-2022.docx", "A 29215-2022")</f>
         <v/>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2746,27 +2746,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 54032-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 54032-2022.xlsx", "A 54032-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 54032-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 54032-2022.png", "A 54032-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 54032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 54032-2022.docx", "A 54032-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 54032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 54032-2022.docx", "A 54032-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 54032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 54032-2022.docx", "A 54032-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 54032-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 54032-2022.docx", "A 54032-2022")</f>
         <v/>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2831,27 +2831,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 56006-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 56006-2022.xlsx", "A 56006-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 56006-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 56006-2022.png", "A 56006-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 56006-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 56006-2022.docx", "A 56006-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 56006-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 56006-2022.docx", "A 56006-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 56006-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 56006-2022.docx", "A 56006-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 56006-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 56006-2022.docx", "A 56006-2022")</f>
         <v/>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,27 +2916,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 21300-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/artfynd/A 21300-2023.xlsx", "A 21300-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 21300-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/kartor/A 21300-2023.png", "A 21300-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 21300-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomål/A 21300-2023.docx", "A 21300-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 21300-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/klagomålsmail/A 21300-2023.docx", "A 21300-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 21300-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsyn/A 21300-2023.docx", "A 21300-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 21300-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BENGTSFORS/tillsynsmail/A 21300-2023.docx", "A 21300-2023")</f>
         <v/>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y588"/>
+  <dimension ref="A1:Y589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
       </c>
       <c r="R587" s="2" t="inlineStr"/>
     </row>
-    <row r="588">
+    <row r="588" ht="15" customHeight="1">
       <c r="A588" t="inlineStr">
         <is>
           <t>A 37394-2023</t>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35154,6 +35154,63 @@
         <v>0</v>
       </c>
       <c r="R588" s="2" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>A 47212-2023</t>
+        </is>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C589" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>BENGTSFORS</t>
+        </is>
+      </c>
+      <c r="G589" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N589" t="n">
+        <v>0</v>
+      </c>
+      <c r="O589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R589" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>43646</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>43647</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>43655</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>43658</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>43670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>43683</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>43690</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43691</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43694</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43694</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43696</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43697</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43698</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43698</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>43698</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43699</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>43705</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>43707</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>43707</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43707</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43709</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43710</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43712</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>43712</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>43713</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43717</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43725</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>43731</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>43738</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>43739</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>43742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>43766</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>43766</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>43766</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>43767</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43769</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43774</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43775</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43781</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43783</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43783</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>43784</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>43787</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>43794</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>43797</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>43797</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>43797</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>43797</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43797</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43801</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>43803</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>43803</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43805</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43809</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>43809</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>43811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>43812</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>43815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>43815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>43817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>43817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>43818</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>43819</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>43837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>43838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>43846</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>43847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>43850</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>43854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>43858</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>43859</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>43864</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>43864</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43864</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>43864</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>43865</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>43868</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>43868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>43872</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>43873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>43873</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>43874</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>43874</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>43880</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>43882</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>43885</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>43892</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>43892</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>43892</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>43894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>43899</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>43899</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>43899</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>43900</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43900</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>43901</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>43902</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43903</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>43907</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>43908</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>43909</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43910</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43913</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43913</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43913</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>43914</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>43915</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>43921</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43921</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43924</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>43927</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>43930</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>43936</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43938</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43938</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43941</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43944</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43944</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43949</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43949</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43949</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43959</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43970</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>43999</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>43999</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>43999</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44004</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44006</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44007</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44007</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44012</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44015</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44018</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44034</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44040</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44041</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44053</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44053</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44054</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>44056</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>44062</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44069</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44071</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44076</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44076</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44076</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44077</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44084</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44092</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44096</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44099</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44099</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44105</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44112</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44112</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>44119</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>44132</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>44132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>44134</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44134</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44144</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44147</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44147</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44147</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44152</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44152</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44154</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44155</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>44161</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44165</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44165</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44167</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44171</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44172</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44173</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44174</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44176</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44179</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44180</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44183</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44207</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44207</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44209</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44209</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44215</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44224</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44235</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44237</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44242</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44245</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44245</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44245</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44247</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44249</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>44251</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>44252</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44258</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44258</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44258</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44258</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44274</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44274</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44293</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>44298</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>44300</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44300</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44302</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>44306</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44306</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44307</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44307</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>44309</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44312</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44326</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>44333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44340</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44340</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44340</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>44341</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>44343</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>44343</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>44350</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22976,7 +22976,7 @@
         <v>44356</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44357</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44357</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44363</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44365</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44367</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44368</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44368</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44369</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44369</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>44370</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44371</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44375</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44377</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44377</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>44379</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>44382</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44385</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>44403</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24193,7 +24193,7 @@
         <v>44412</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>44417</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44417</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>44417</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>44428</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44432</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44433</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44441</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44446</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44446</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44453</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44453</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>44460</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>44466</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>44469</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44472</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44476</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44476</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44477</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>44487</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44487</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44488</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44488</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44488</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44505</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44508</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44508</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44512</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44513</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44516</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44516</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44524</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44526</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44550</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44552</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>44552</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44558</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44564</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>44571</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44581</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>44585</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44585</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44594</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>44596</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44599</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44601</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44608</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44613</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44615</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44617</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44620</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44621</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44628</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44634</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44634</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44637</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>44642</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44649</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44649</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>44649</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28037,7 +28037,7 @@
         <v>44655</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44692</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>44692</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44692</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44692</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>44694</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>44704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>44714</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>44749</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>44750</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44750</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>44755</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>44776</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>44776</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44776</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44790</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44790</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44798</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44810</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>44812</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44821</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44826</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>44827</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44830</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44830</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44831</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44831</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44831</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>44834</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44834</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44834</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>44839</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44839</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44840</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44844</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44851</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44853</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44855</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44866</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44866</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>44866</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>44868</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44868</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44875</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>44876</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44887</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44893</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>44894</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44895</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>44903</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31036,7 +31036,7 @@
         <v>44907</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31093,7 +31093,7 @@
         <v>44911</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>44911</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31207,7 +31207,7 @@
         <v>44911</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>44911</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>44916</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44917</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44929</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>44929</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44930</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44935</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44935</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44943</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44943</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44943</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44943</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44944</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44946</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44953</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44958</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44963</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44966</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44966</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44966</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44978</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44979</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44980</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44988</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44993</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44999</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45002</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45007</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45007</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45015</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45021</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45021</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45034</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45040</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45042</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45045</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45049</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45050</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45050</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45054</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45054</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>45054</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>45060</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33792,7 +33792,7 @@
         <v>45062</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33849,7 +33849,7 @@
         <v>45062</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         <v>45071</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>45071</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>45076</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34077,7 +34077,7 @@
         <v>45079</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>45091</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45091</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34248,7 +34248,7 @@
         <v>45091</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34305,7 +34305,7 @@
         <v>45092</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34362,7 +34362,7 @@
         <v>45097</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34419,7 +34419,7 @@
         <v>45097</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45103</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45112</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45114</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45121</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45124</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45151</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45151</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34937,7 +34937,7 @@
         <v>45151</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34994,7 +34994,7 @@
         <v>45151</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35051,7 +35051,7 @@
         <v>45154</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45155</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45202</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>

--- a/Översikt BENGTSFORS.xlsx
+++ b/Översikt BENGTSFORS.xlsx
@@ -572,7 +572,7 @@
         <v>45030</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>43644</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         <v>44615</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44505</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>43508</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>43628</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43970</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44186</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>44750</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44866</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>44916</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44997</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45092</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43766</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44071</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44249</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44740</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44750</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>45062</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43314</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43321</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43339</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43339</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43339</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43339</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43340</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>43353</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43357</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43357</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>43364</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>43364</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43376</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43376</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43383</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43388</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>43409</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43420</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43425</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43427</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43427</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43448</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43453</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43470</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43474</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43475</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>43479</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>43486</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>43494</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43497</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43497</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>43508</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43534</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>43538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>43539</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>43542</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>43544</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43544</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43544</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>43544</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>43544</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43544</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>43544</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>43550</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43551</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>43556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>43558</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>43560</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43565</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43565</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43565</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43567</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>43567</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43573</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43578</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43579</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43579</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43601</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43613</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>43613</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43614</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>43618</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>43618</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>43619</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>43627</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>43633</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>43633</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>43635</v>
       </c>
       <c r="C135" s="1" 